--- a/breeding_patterns - win, sum/Dam, Sire birth season/Seasonal_Births_ SM2 _ 3 yr.xlsx
+++ b/breeding_patterns - win, sum/Dam, Sire birth season/Seasonal_Births_ SM2 _ 3 yr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">BirthSeason</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t xml:space="preserve">2011-2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-2016</t>
   </si>
   <si>
     <t xml:space="preserve">Summer</t>
@@ -383,10 +386,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>581</v>
@@ -400,10 +406,13 @@
       <c r="E2" t="n">
         <v>280</v>
       </c>
+      <c r="F2" t="n">
+        <v>299</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>565</v>
@@ -416,6 +425,9 @@
       </c>
       <c r="E3" t="n">
         <v>262</v>
+      </c>
+      <c r="F3" t="n">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -448,10 +460,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>331</v>
@@ -465,10 +480,13 @@
       <c r="E2" t="n">
         <v>216</v>
       </c>
+      <c r="F2" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>380</v>
@@ -481,6 +499,9 @@
       </c>
       <c r="E3" t="n">
         <v>236</v>
+      </c>
+      <c r="F3" t="n">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -513,10 +534,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>121</v>
@@ -530,10 +554,13 @@
       <c r="E2" t="n">
         <v>210</v>
       </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>94</v>
@@ -546,6 +573,9 @@
       </c>
       <c r="E3" t="n">
         <v>99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -578,10 +608,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>65</v>
@@ -595,10 +628,13 @@
       <c r="E2" t="n">
         <v>87</v>
       </c>
+      <c r="F2" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>115</v>
@@ -611,6 +647,9 @@
       </c>
       <c r="E3" t="n">
         <v>25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
